--- a/src/domain_template.xlsx
+++ b/src/domain_template.xlsx
@@ -22,7 +22,7 @@
     <t>Skill_Domain_Name</t>
   </si>
   <si>
-    <t>Back-end Survey</t>
+    <t>Back-end</t>
   </si>
   <si>
     <t>PostgreQL</t>
@@ -62,7 +62,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
